--- a/Táblázatok/Analog_ORDER.xlsx
+++ b/Táblázatok/Analog_ORDER.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
   <si>
     <t>Ref.Des.</t>
   </si>
@@ -360,9 +360,6 @@
     <t>TO220</t>
   </si>
   <si>
-    <t>PHP79N</t>
-  </si>
-  <si>
     <t>(Q2,Q5)CH1…8, Q8, Q9, Q10, Q11, Q12, Q13, Q14,</t>
   </si>
   <si>
@@ -585,29 +582,20 @@
     <t>66-OAR1R100FLF</t>
   </si>
   <si>
-    <t>595-LT1054CDWR</t>
-  </si>
-  <si>
-    <t>652-SMAJ16CA-H</t>
-  </si>
-  <si>
-    <t>655-OJ-SS-112LMH2</t>
-  </si>
-  <si>
-    <t>771-PHP79NQ08LT,127</t>
-  </si>
-  <si>
     <t>765731-01</t>
   </si>
   <si>
     <t>765730-01</t>
+  </si>
+  <si>
+    <t>IRLB3034</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +617,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -678,9 +672,10 @@
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,7 +691,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -994,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1084,7 +1079,7 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1118,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1169,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1189,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1223,10 +1218,10 @@
         <v>8</v>
       </c>
       <c r="H18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
         <v>176</v>
-      </c>
-      <c r="L18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -1243,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1260,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -1277,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1294,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1305,13 +1300,13 @@
         <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
         <v>178</v>
-      </c>
-      <c r="F23" s="4">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1328,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -1348,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -1382,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -1390,7 +1385,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>69</v>
@@ -1405,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -1422,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -1439,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -1450,13 +1445,13 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
         <v>181</v>
-      </c>
-      <c r="F31" s="4">
-        <v>8</v>
-      </c>
-      <c r="H31" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -1473,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1490,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1501,13 +1496,13 @@
         <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="4">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
         <v>183</v>
-      </c>
-      <c r="F34" s="4">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1541,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1558,18 +1553,18 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" t="s">
         <v>160</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>161</v>
-      </c>
-      <c r="M37" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>35</v>
@@ -1581,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1607,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1624,18 +1619,18 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="5">
         <v>16</v>
@@ -1649,13 +1644,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -1663,59 +1658,59 @@
       <c r="H44" t="s">
         <v>24</v>
       </c>
-      <c r="J44" t="s">
-        <v>188</v>
+      <c r="I44">
+        <v>2323508</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -1723,10 +1718,10 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1738,24 +1733,24 @@
         <v>2099884</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
         <v>128</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" t="s">
-        <v>129</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -1775,7 +1770,7 @@
         <v>1469394</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>95</v>
       </c>
@@ -1789,10 +1784,10 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>103</v>
       </c>
@@ -1809,15 +1804,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
         <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" t="s">
-        <v>136</v>
       </c>
       <c r="F54" s="5">
         <v>8</v>
@@ -1825,28 +1820,28 @@
       <c r="H54" t="s">
         <v>24</v>
       </c>
-      <c r="J54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>2536507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>157</v>
-      </c>
-      <c r="D55" t="s">
-        <v>158</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -1865,11 +1860,11 @@
       <c r="H57" t="s">
         <v>24</v>
       </c>
-      <c r="J57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>1891671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1886,10 +1881,10 @@
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1906,10 +1901,10 @@
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>109</v>
       </c>
@@ -1929,7 +1924,7 @@
         <v>2056683</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>110</v>
       </c>
@@ -1946,9 +1941,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
         <v>99</v>
@@ -1963,7 +1958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>111</v>
       </c>
@@ -1971,7 +1966,7 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -1979,28 +1974,28 @@
       <c r="H65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I65" s="9">
+        <v>1698299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
         <v>115</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>116</v>
-      </c>
-      <c r="D66" t="s">
-        <v>117</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -2008,18 +2003,19 @@
         <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Táblázatok/Analog_ORDER.xlsx
+++ b/Táblázatok/Analog_ORDER.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="191">
   <si>
     <t>Ref.Des.</t>
   </si>
@@ -579,9 +579,6 @@
     <t>(1%)</t>
   </si>
   <si>
-    <t>66-OAR1R100FLF</t>
-  </si>
-  <si>
     <t>765731-01</t>
   </si>
   <si>
@@ -589,6 +586,12 @@
   </si>
   <si>
     <t>IRLB3034</t>
+  </si>
+  <si>
+    <t>713244-01</t>
+  </si>
+  <si>
+    <t>silpad</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -673,9 +676,10 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,7 +695,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -987,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:M70"/>
+  <dimension ref="A5:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,13 +1398,7 @@
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -1958,7 +1956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>111</v>
       </c>
@@ -1966,7 +1964,7 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -1978,7 +1976,7 @@
         <v>1698299</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>114</v>
       </c>
@@ -1995,7 +1993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -2003,16 +2001,33 @@
         <v>33</v>
       </c>
       <c r="H68" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H70" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="10">
+        <v>681090</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Táblázatok/Analog_ORDER.xlsx
+++ b/Táblázatok/Analog_ORDER.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
   <si>
     <t>Ref.Des.</t>
   </si>
@@ -30,22 +30,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Voltage</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Echo PN</t>
   </si>
   <si>
     <t>Farnell PN</t>
-  </si>
-  <si>
-    <t>Mouser PN</t>
   </si>
   <si>
     <t>CAP</t>
@@ -991,19 +982,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:M72"/>
+  <dimension ref="A5:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1022,1011 +1014,1002 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
-      <c r="F16">
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>33</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="4">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>175</v>
       </c>
-      <c r="L18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="4">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="4">
-        <v>8</v>
-      </c>
-      <c r="H21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="4">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="H24" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="4">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="4">
-        <v>8</v>
-      </c>
-      <c r="H24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" s="8">
         <v>866</v>
       </c>
-      <c r="F25" s="4">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="4">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E34" s="4">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="4">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="4">
-        <v>8</v>
-      </c>
-      <c r="H27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="4">
-        <v>8</v>
-      </c>
-      <c r="H28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="4">
-        <v>8</v>
-      </c>
-      <c r="H29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="4">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="4">
-        <v>8</v>
-      </c>
-      <c r="H31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="4">
-        <v>8</v>
-      </c>
-      <c r="H32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="4">
-        <v>8</v>
-      </c>
-      <c r="H33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="4">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="4">
-        <v>7</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
         <v>159</v>
       </c>
-      <c r="L37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="4">
-        <v>3</v>
-      </c>
-      <c r="H38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E42" s="5">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="5">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>9589929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>2323508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>2099884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1469394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="5">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="5">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="5">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>2536507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="5">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>1891671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="5">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62">
+        <v>2056683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63">
         <v>16</v>
       </c>
-      <c r="H43" t="s">
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
         <v>24</v>
       </c>
-      <c r="I43">
-        <v>9589929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="5">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1698299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="H44" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44">
-        <v>2323508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="F66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="F68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E69">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48">
-        <v>2099884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1469394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="5">
-        <v>8</v>
-      </c>
-      <c r="H52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="5">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="5">
-        <v>8</v>
-      </c>
-      <c r="H54" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54">
-        <v>2536507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="5">
-        <v>7</v>
-      </c>
-      <c r="H57" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57">
-        <v>1891671</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="5">
-        <v>8</v>
-      </c>
-      <c r="H59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <v>8</v>
-      </c>
-      <c r="H61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62">
-        <v>8</v>
-      </c>
-      <c r="H62" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62">
-        <v>2056683</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63">
-        <v>16</v>
-      </c>
-      <c r="H63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65">
-        <v>8</v>
-      </c>
-      <c r="H65" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="9">
-        <v>1698299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s">
-        <v>186</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H69" t="s">
+      <c r="F69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>187</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H70" s="6"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>190</v>
-      </c>
-      <c r="I72" s="10">
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="G72" s="10">
         <v>681090</v>
-      </c>
-      <c r="J72">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
